--- a/02-Documents/01-Rapports/EvaluationXamarinDamloup.xlsx
+++ b/02-Documents/01-Rapports/EvaluationXamarinDamloup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\ETML-Cours\02-Documents\01-Rapports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51AE44-9930-4B4A-AECA-C78119639B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9FDF3-A2B8-4113-B93B-3655C29B6E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
+    <workbookView xWindow="4455" yWindow="3510" windowWidth="28800" windowHeight="15840" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E76EC-EDDE-4987-90A7-4B9C85CB51F4}">
   <dimension ref="A1:J595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02-Documents/01-Rapports/EvaluationXamarinDamloup.xlsx
+++ b/02-Documents/01-Rapports/EvaluationXamarinDamloup.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\ETML-Cours\02-Documents\01-Rapports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damis\Desktop\developpement\01-Github\02-Autres\ETML-Cours\02-Documents\01-Rapports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9FDF3-A2B8-4113-B93B-3655C29B6E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402CE5C-C1BD-4716-B16A-EDFF60170BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="3510" windowWidth="28800" windowHeight="15840" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Thème à évaluer</t>
   </si>
@@ -71,9 +69,6 @@
     <t>Maquettes de l'application</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Installation de l'environnement</t>
   </si>
   <si>
@@ -146,21 +141,12 @@
     <t>Création des composants dans un layout</t>
   </si>
   <si>
-    <t>Comment on crée des éléments dans le fichiers XML : Balises, boite à outils, dans le code. Attribut de l'élément : couleur, texte, id -&gt; dans le fichier de ressources où il y a tous les Ids. Les layouts : Différents types de layout. Un layout peut être dans un autre layout, etc... Relative layout, LineraLayout, Grid Layout</t>
-  </si>
-  <si>
     <t>Lien entre un composant et le code (+ evenement)</t>
   </si>
   <si>
-    <t>Objets correspondant aux composants créé (variable avec la class "Button"), Récupération du composant dans le code : FindViewById&lt;Button&gt;(Resouce.Id.btnName). Methode événementielle : buttonName.Click += MethodeEvenementielleDuBouton; Dans les paramètres de la méthode, "Sender" =&gt; Objet qui appelle cette méthode et "e" =&gt; informations sur l'événement</t>
-  </si>
-  <si>
     <t>Création de composant dynamiquement</t>
   </si>
   <si>
-    <t>Comment créer l'élément et l'afficher =&gt; Créer l'élément dans le fichier .cs -&gt; changer les attributs (parametrer) -&gt; Ajouter au layout, 2 façons de changer les attributs d'un élément. Créer un layout possible aussi</t>
-  </si>
-  <si>
     <t>Lien entre 2 activités</t>
   </si>
   <si>
@@ -189,13 +175,195 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment on crée des éléments dans le fichiers XML : Balises, boite à outils,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dans le code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attribut de l'élément : couleur, texte, id -&gt; dans le fichier de ressources où il y a tous les Ids.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Les layouts : Différents types de layout. Un layout peut être dans un autre layout, etc... Relative layout, LineraLayout, Grid Layout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment créer l'élément</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et l'afficher =&gt; Créer l'élément dans le fichier .cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; changer les attributs (parametrer) -&gt; Ajouter au layout, 2 façons de changer les attributs d'un élément. Créer un layout possible aussi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objets correspondant aux composants créé (variable avec la class "Button"), Récupération du composant dans le code : FindViewById&lt;Button&gt;(Resouce.Id.btnName)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Methode événementielle : buttonName.Click += MethodeEvenementielleDuBouton;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dans les paramètres de la méthode, "Sender" =&gt; Objet qui appelle cette méthode et "e" =&gt; informations sur l'événement</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +404,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,14 +486,74 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -389,21 +624,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAE6430-D31A-4019-AABA-DE6E64B1A71D}" name="Tableau1" displayName="Tableau1" ref="A1:J25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAE6430-D31A-4019-AABA-DE6E64B1A71D}" name="Tableau1" displayName="Tableau1" ref="A1:J25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:J25" xr:uid="{B9DE9194-2C36-4362-88D9-E298ADDB3769}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{87BD80B0-6C3C-4B66-8D6C-E9A1FDECEABA}" name="Thème à évaluer" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4E41E510-AB0A-4A9A-89BB-93002AA8BB53}" name="Points" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{702FFC14-E32B-400B-9D86-A6F2A4539502}" name="Poids" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{FE04450B-4D3B-4FFB-A69F-9E2CAD386D23}" name="Eval" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{87BD80B0-6C3C-4B66-8D6C-E9A1FDECEABA}" name="Thème à évaluer" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4E41E510-AB0A-4A9A-89BB-93002AA8BB53}" name="Points" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{702FFC14-E32B-400B-9D86-A6F2A4539502}" name="Poids" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{FE04450B-4D3B-4FFB-A69F-9E2CAD386D23}" name="Eval" dataDxfId="12">
       <calculatedColumnFormula>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E75898E4-BA48-4F7B-B832-59249243082A}" name="Remarque" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A56AE594-1BD5-44BF-8790-56128169BAE9}" name="A expliquer dans le document de rapport" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{52C30B02-FE73-4177-9282-8B3537B09B19}" name="Etapes" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{534FE532-DD49-4FE7-8389-8378F5D60E06}" name="Etapes2" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{D3F1817F-84C7-47D6-896E-5C15A5A2AE36}" name="Etapes3" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{246881A6-18D4-4BB1-95DF-E9F3F0D4FA4F}" name="Fait" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{E75898E4-BA48-4F7B-B832-59249243082A}" name="Remarque" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A56AE594-1BD5-44BF-8790-56128169BAE9}" name="A expliquer dans le document de rapport" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{52C30B02-FE73-4177-9282-8B3537B09B19}" name="Etapes" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{534FE532-DD49-4FE7-8389-8378F5D60E06}" name="Etapes2" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{D3F1817F-84C7-47D6-896E-5C15A5A2AE36}" name="Etapes3" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{246881A6-18D4-4BB1-95DF-E9F3F0D4FA4F}" name="Fait" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E76EC-EDDE-4987-90A7-4B9C85CB51F4}">
   <dimension ref="A1:J595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,12 +1010,12 @@
       </c>
       <c r="G2" s="3"/>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -793,16 +1028,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -815,57 +1050,60 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3"/>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -878,57 +1116,61 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <f>IF(J9="X",3,0)</f>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -936,10 +1178,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,7 +1189,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -955,7 +1197,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -963,7 +1205,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,7 +1213,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -979,71 +1221,84 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <f t="shared" ref="B10:B22" si="0">IF(J16="X",3,0)</f>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3"/>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G17" s="3"/>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3"/>
+      <c r="J18" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="1">
@@ -1054,15 +1309,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3"/>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -1073,15 +1332,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="1">
@@ -1092,15 +1355,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G21" s="3"/>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -1112,19 +1379,22 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7">
         <f>SUM(B2:B22)</f>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
         <f>SUM(D2:D22)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -1135,7 +1405,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" s="11">
         <f>COUNTA(B2:B22)*3</f>
@@ -1155,13 +1425,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="13">
+      <c r="D25" s="7">
         <f>D23/D24*5+1</f>
-        <v>1.9259259259259258</v>
+        <v>3.7777777777777777</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
@@ -1191,52 +1461,58 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
@@ -2881,6 +3157,17 @@
       <c r="F595" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J22">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
